--- a/data/raw/trailcharacteristics.xlsx
+++ b/data/raw/trailcharacteristics.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://headwaterseconomics.sharepoint.com/sites/Projects/Shared Documents/Counting Recreation 2021/Bridgers/Data/ForMeridith/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_14ED399552AC4E1AC9BC7B88EB7AAB1300B92B27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32BC136F-B170-4C68-92F7-4F53675D2B52}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-18950" yWindow="0" windowWidth="18760" windowHeight="20690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="77">
   <si>
     <t>trailnumber</t>
   </si>
@@ -241,16 +248,24 @@
   </si>
   <si>
     <t>sidebyside</t>
+  </si>
+  <si>
+    <t>New World Gulch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -273,20 +288,344 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -348,8 +687,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>499</v>
       </c>
       <c r="B2" t="s">
@@ -358,10 +697,10 @@
       <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>45.90672</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>-110.95981999999999</v>
       </c>
       <c r="F2" t="s">
@@ -370,7 +709,7 @@
       <c r="G2" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>2</v>
       </c>
       <c r="I2" t="s">
@@ -391,27 +730,27 @@
       <c r="N2" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="0">
+      <c r="O2">
         <v>57.162484467253798</v>
       </c>
-      <c r="P2" s="0">
+      <c r="P2">
         <v>29.284530732077638</v>
       </c>
-      <c r="Q2" s="0">
-        <v>3</v>
-      </c>
-      <c r="R2" s="0">
-        <v>0</v>
-      </c>
-      <c r="S2" s="0">
-        <v>0</v>
-      </c>
-      <c r="T2" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>500</v>
       </c>
       <c r="B3" t="s">
@@ -420,10 +759,10 @@
       <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>45.908969999999997</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>-110.92765</v>
       </c>
       <c r="F3" t="s">
@@ -432,7 +771,7 @@
       <c r="G3" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>3</v>
       </c>
       <c r="I3" t="s">
@@ -453,27 +792,27 @@
       <c r="N3" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="0">
+      <c r="O3">
         <v>46.394423864281102</v>
       </c>
-      <c r="P3" s="0">
+      <c r="P3">
         <v>27.054210596744149</v>
       </c>
-      <c r="Q3" s="0">
-        <v>3</v>
-      </c>
-      <c r="R3" s="0">
-        <v>1</v>
-      </c>
-      <c r="S3" s="0">
-        <v>1</v>
-      </c>
-      <c r="T3" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>501</v>
       </c>
       <c r="B4" t="s">
@@ -482,10 +821,10 @@
       <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>45.908969999999997</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>-110.92765</v>
       </c>
       <c r="F4" t="s">
@@ -494,7 +833,7 @@
       <c r="G4" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>3</v>
       </c>
       <c r="I4" t="s">
@@ -515,27 +854,27 @@
       <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="0">
+      <c r="O4">
         <v>57.162484467253798</v>
       </c>
-      <c r="P4" s="0">
+      <c r="P4">
         <v>29.284530732077638</v>
       </c>
-      <c r="Q4" s="0">
-        <v>3</v>
-      </c>
-      <c r="R4" s="0">
-        <v>0</v>
-      </c>
-      <c r="S4" s="0">
-        <v>0</v>
-      </c>
-      <c r="T4" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>511</v>
       </c>
       <c r="B5" t="s">
@@ -544,10 +883,10 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>45.715220000000002</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>-110.97468000000001</v>
       </c>
       <c r="F5" t="s">
@@ -556,7 +895,7 @@
       <c r="G5" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>4</v>
       </c>
       <c r="I5" t="s">
@@ -577,27 +916,27 @@
       <c r="N5" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="0">
+      <c r="O5">
         <v>12.158527896881209</v>
       </c>
-      <c r="P5" s="0">
+      <c r="P5">
         <v>5.8300616069885276</v>
       </c>
-      <c r="Q5" s="0">
-        <v>3</v>
-      </c>
-      <c r="R5" s="0">
-        <v>0</v>
-      </c>
-      <c r="S5" s="0">
-        <v>0</v>
-      </c>
-      <c r="T5" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>513</v>
       </c>
       <c r="B6" t="s">
@@ -606,10 +945,10 @@
       <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>45.719270000000002</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>-110.96512</v>
       </c>
       <c r="F6" t="s">
@@ -618,7 +957,7 @@
       <c r="G6" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
@@ -639,27 +978,27 @@
       <c r="N6" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="0">
+      <c r="O6">
         <v>12.158527896881209</v>
       </c>
-      <c r="P6" s="0">
+      <c r="P6">
         <v>5.8300616069885276</v>
       </c>
-      <c r="Q6" s="0">
-        <v>3</v>
-      </c>
-      <c r="R6" s="0">
-        <v>0</v>
-      </c>
-      <c r="S6" s="0">
-        <v>0</v>
-      </c>
-      <c r="T6" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>513</v>
       </c>
       <c r="B7" t="s">
@@ -668,10 +1007,10 @@
       <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>45.719270000000002</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>-110.96512</v>
       </c>
       <c r="F7" t="s">
@@ -680,7 +1019,7 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
@@ -701,27 +1040,27 @@
       <c r="N7" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="0">
+      <c r="O7">
         <v>31.704600885300273</v>
       </c>
-      <c r="P7" s="0">
+      <c r="P7">
         <v>19.095057496387554</v>
       </c>
-      <c r="Q7" s="0">
-        <v>3</v>
-      </c>
-      <c r="R7" s="0">
-        <v>0</v>
-      </c>
-      <c r="S7" s="0">
-        <v>0</v>
-      </c>
-      <c r="T7" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>513</v>
       </c>
       <c r="B8" t="s">
@@ -730,10 +1069,10 @@
       <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>45.719270000000002</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>-110.96512</v>
       </c>
       <c r="F8" t="s">
@@ -742,7 +1081,7 @@
       <c r="G8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
@@ -763,27 +1102,27 @@
       <c r="N8" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="0">
+      <c r="O8">
         <v>41</v>
       </c>
-      <c r="P8" s="0">
-        <v>23.800000000000001</v>
-      </c>
-      <c r="Q8" s="0">
-        <v>1</v>
-      </c>
-      <c r="R8" s="0">
-        <v>0</v>
-      </c>
-      <c r="S8" s="0">
-        <v>0</v>
-      </c>
-      <c r="T8" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
+      <c r="P8">
+        <v>23.8</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>513</v>
       </c>
       <c r="B9" t="s">
@@ -792,10 +1131,10 @@
       <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9">
         <v>45.719270000000002</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>-110.96512</v>
       </c>
       <c r="F9" t="s">
@@ -804,7 +1143,7 @@
       <c r="G9" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
@@ -825,27 +1164,27 @@
       <c r="N9" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="0">
+      <c r="O9">
         <v>12.158527896881209</v>
       </c>
-      <c r="P9" s="0">
+      <c r="P9">
         <v>5.8300616069885276</v>
       </c>
-      <c r="Q9" s="0">
-        <v>3</v>
-      </c>
-      <c r="R9" s="0">
-        <v>0</v>
-      </c>
-      <c r="S9" s="0">
-        <v>0</v>
-      </c>
-      <c r="T9" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>513</v>
       </c>
       <c r="B10" t="s">
@@ -854,10 +1193,10 @@
       <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10">
         <v>45.719270000000002</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10">
         <v>-110.96512</v>
       </c>
       <c r="F10" t="s">
@@ -866,7 +1205,7 @@
       <c r="G10" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="0">
+      <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
@@ -887,27 +1226,27 @@
       <c r="N10" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="0">
+      <c r="O10">
         <v>41</v>
       </c>
-      <c r="P10" s="0">
-        <v>23.800000000000001</v>
-      </c>
-      <c r="Q10" s="0">
-        <v>3</v>
-      </c>
-      <c r="R10" s="0">
-        <v>0</v>
-      </c>
-      <c r="S10" s="0">
-        <v>0</v>
-      </c>
-      <c r="T10" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
+      <c r="P10">
+        <v>23.8</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>513</v>
       </c>
       <c r="B11" t="s">
@@ -916,10 +1255,10 @@
       <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11">
         <v>45.719270000000002</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>-110.96512</v>
       </c>
       <c r="F11" t="s">
@@ -928,7 +1267,7 @@
       <c r="G11" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="0">
+      <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
@@ -949,27 +1288,27 @@
       <c r="N11" t="s">
         <v>65</v>
       </c>
-      <c r="O11" s="0">
+      <c r="O11">
         <v>57.162484467253798</v>
       </c>
-      <c r="P11" s="0">
+      <c r="P11">
         <v>29.284530732077638</v>
       </c>
-      <c r="Q11" s="0">
-        <v>3</v>
-      </c>
-      <c r="R11" s="0">
-        <v>0</v>
-      </c>
-      <c r="S11" s="0">
-        <v>0</v>
-      </c>
-      <c r="T11" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>513</v>
       </c>
       <c r="B12" t="s">
@@ -978,10 +1317,10 @@
       <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D12">
         <v>45.709859999999999</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>-110.97659</v>
       </c>
       <c r="F12" t="s">
@@ -990,7 +1329,7 @@
       <c r="G12" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="0">
+      <c r="H12">
         <v>2</v>
       </c>
       <c r="I12" t="s">
@@ -1011,27 +1350,27 @@
       <c r="N12" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="0">
+      <c r="O12">
         <v>12.158527896881209</v>
       </c>
-      <c r="P12" s="0">
+      <c r="P12">
         <v>5.8300616069885276</v>
       </c>
-      <c r="Q12" s="0">
-        <v>3</v>
-      </c>
-      <c r="R12" s="0">
-        <v>0</v>
-      </c>
-      <c r="S12" s="0">
-        <v>0</v>
-      </c>
-      <c r="T12" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>518</v>
       </c>
       <c r="B13" t="s">
@@ -1040,10 +1379,10 @@
       <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13">
         <v>45.90672</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>-110.95981999999999</v>
       </c>
       <c r="F13" t="s">
@@ -1052,7 +1391,7 @@
       <c r="G13" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <v>3</v>
       </c>
       <c r="I13" t="s">
@@ -1073,27 +1412,27 @@
       <c r="N13" t="s">
         <v>65</v>
       </c>
-      <c r="O13" s="0">
+      <c r="O13">
         <v>57.162484467253798</v>
       </c>
-      <c r="P13" s="0">
+      <c r="P13">
         <v>29.284530732077638</v>
       </c>
-      <c r="Q13" s="0">
-        <v>3</v>
-      </c>
-      <c r="R13" s="0">
-        <v>0</v>
-      </c>
-      <c r="S13" s="0">
-        <v>0</v>
-      </c>
-      <c r="T13" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>523</v>
       </c>
       <c r="B14" t="s">
@@ -1102,10 +1441,10 @@
       <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14">
         <v>45.984859999999998</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14">
         <v>-111.0205</v>
       </c>
       <c r="F14" t="s">
@@ -1114,7 +1453,7 @@
       <c r="G14" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <v>3</v>
       </c>
       <c r="I14" t="s">
@@ -1135,27 +1474,27 @@
       <c r="N14" t="s">
         <v>65</v>
       </c>
-      <c r="O14" s="0">
+      <c r="O14">
         <v>78</v>
       </c>
-      <c r="P14" s="0">
+      <c r="P14">
         <v>44</v>
       </c>
-      <c r="Q14" s="0">
-        <v>1</v>
-      </c>
-      <c r="R14" s="0">
-        <v>0</v>
-      </c>
-      <c r="S14" s="0">
-        <v>0</v>
-      </c>
-      <c r="T14" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>527</v>
       </c>
       <c r="B15" t="s">
@@ -1164,10 +1503,10 @@
       <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15">
         <v>45.908969999999997</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15">
         <v>-110.92765</v>
       </c>
       <c r="F15" t="s">
@@ -1176,7 +1515,7 @@
       <c r="G15" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <v>4</v>
       </c>
       <c r="I15" t="s">
@@ -1197,27 +1536,27 @@
       <c r="N15" t="s">
         <v>65</v>
       </c>
-      <c r="O15" s="0">
+      <c r="O15">
         <v>46.394423864281102</v>
       </c>
-      <c r="P15" s="0">
+      <c r="P15">
         <v>27.054210596744149</v>
       </c>
-      <c r="Q15" s="0">
-        <v>3</v>
-      </c>
-      <c r="R15" s="0">
-        <v>1</v>
-      </c>
-      <c r="S15" s="0">
-        <v>1</v>
-      </c>
-      <c r="T15" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>528</v>
       </c>
       <c r="B16" t="s">
@@ -1226,10 +1565,10 @@
       <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16">
         <v>45.984499999999997</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16">
         <v>-111.07626</v>
       </c>
       <c r="F16" t="s">
@@ -1238,7 +1577,7 @@
       <c r="G16" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <v>4</v>
       </c>
       <c r="I16" t="s">
@@ -1259,27 +1598,27 @@
       <c r="N16" t="s">
         <v>65</v>
       </c>
-      <c r="O16" s="0">
+      <c r="O16">
         <v>43.560106581012732</v>
       </c>
-      <c r="P16" s="0">
+      <c r="P16">
         <v>27.266587205699018</v>
       </c>
-      <c r="Q16" s="0">
-        <v>1</v>
-      </c>
-      <c r="R16" s="0">
-        <v>1</v>
-      </c>
-      <c r="S16" s="0">
-        <v>1</v>
-      </c>
-      <c r="T16" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>530</v>
       </c>
       <c r="B17" t="s">
@@ -1288,10 +1627,10 @@
       <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="0">
+      <c r="D17">
         <v>45.819330000000001</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17">
         <v>-110.90675</v>
       </c>
       <c r="F17" t="s">
@@ -1300,7 +1639,7 @@
       <c r="G17" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <v>3</v>
       </c>
       <c r="I17" t="s">
@@ -1321,27 +1660,27 @@
       <c r="N17" t="s">
         <v>65</v>
       </c>
-      <c r="O17" s="0">
+      <c r="O17">
         <v>31.704600885300273</v>
       </c>
-      <c r="P17" s="0">
+      <c r="P17">
         <v>19.095057496387554</v>
       </c>
-      <c r="Q17" s="0">
+      <c r="Q17">
         <v>2</v>
       </c>
-      <c r="R17" s="0">
-        <v>0</v>
-      </c>
-      <c r="S17" s="0">
-        <v>0</v>
-      </c>
-      <c r="T17" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>531</v>
       </c>
       <c r="B18" t="s">
@@ -1350,10 +1689,10 @@
       <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18">
         <v>45.7453</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18">
         <v>-111.00811</v>
       </c>
       <c r="F18" t="s">
@@ -1362,7 +1701,7 @@
       <c r="G18" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <v>3</v>
       </c>
       <c r="I18" t="s">
@@ -1383,27 +1722,27 @@
       <c r="N18" t="s">
         <v>65</v>
       </c>
-      <c r="O18" s="0">
+      <c r="O18">
         <v>14.453817537632217</v>
       </c>
-      <c r="P18" s="0">
+      <c r="P18">
         <v>7.5995887261738853</v>
       </c>
-      <c r="Q18" s="0">
+      <c r="Q18">
         <v>2</v>
       </c>
-      <c r="R18" s="0">
-        <v>0</v>
-      </c>
-      <c r="S18" s="0">
-        <v>0</v>
-      </c>
-      <c r="T18" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>534</v>
       </c>
       <c r="B19" t="s">
@@ -1412,10 +1751,10 @@
       <c r="C19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="0">
+      <c r="D19">
         <v>45.71996</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19">
         <v>-110.97888</v>
       </c>
       <c r="F19" t="s">
@@ -1424,7 +1763,7 @@
       <c r="G19" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <v>3</v>
       </c>
       <c r="I19" t="s">
@@ -1445,27 +1784,27 @@
       <c r="N19" t="s">
         <v>65</v>
       </c>
-      <c r="O19" s="0">
+      <c r="O19">
         <v>25.740704268839696</v>
       </c>
-      <c r="P19" s="0">
+      <c r="P19">
         <v>14.403437476781308</v>
       </c>
-      <c r="Q19" s="0">
-        <v>3</v>
-      </c>
-      <c r="R19" s="0">
-        <v>0</v>
-      </c>
-      <c r="S19" s="0">
-        <v>0</v>
-      </c>
-      <c r="T19" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>534</v>
       </c>
       <c r="B20" t="s">
@@ -1474,10 +1813,10 @@
       <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="0">
+      <c r="D20">
         <v>45.71996</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20">
         <v>-110.97888</v>
       </c>
       <c r="F20" t="s">
@@ -1486,7 +1825,7 @@
       <c r="G20" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <v>3</v>
       </c>
       <c r="I20" t="s">
@@ -1507,27 +1846,27 @@
       <c r="N20" t="s">
         <v>65</v>
       </c>
-      <c r="O20" s="0">
+      <c r="O20">
         <v>12.158527896881209</v>
       </c>
-      <c r="P20" s="0">
+      <c r="P20">
         <v>5.8300616069885276</v>
       </c>
-      <c r="Q20" s="0">
-        <v>3</v>
-      </c>
-      <c r="R20" s="0">
-        <v>0</v>
-      </c>
-      <c r="S20" s="0">
-        <v>0</v>
-      </c>
-      <c r="T20" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>534</v>
       </c>
       <c r="B21" t="s">
@@ -1536,10 +1875,10 @@
       <c r="C21" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="0">
+      <c r="D21">
         <v>45.71996</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21">
         <v>-110.97888</v>
       </c>
       <c r="F21" t="s">
@@ -1548,7 +1887,7 @@
       <c r="G21" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <v>3</v>
       </c>
       <c r="I21" t="s">
@@ -1569,27 +1908,27 @@
       <c r="N21" t="s">
         <v>65</v>
       </c>
-      <c r="O21" s="0">
+      <c r="O21">
         <v>12.158527896881209</v>
       </c>
-      <c r="P21" s="0">
+      <c r="P21">
         <v>5.8300616069885276</v>
       </c>
-      <c r="Q21" s="0">
-        <v>3</v>
-      </c>
-      <c r="R21" s="0">
-        <v>0</v>
-      </c>
-      <c r="S21" s="0">
-        <v>0</v>
-      </c>
-      <c r="T21" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>534</v>
       </c>
       <c r="B22" t="s">
@@ -1598,10 +1937,10 @@
       <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="0">
+      <c r="D22">
         <v>45.71996</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22">
         <v>-110.97888</v>
       </c>
       <c r="F22" t="s">
@@ -1610,7 +1949,7 @@
       <c r="G22" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="0">
+      <c r="H22">
         <v>3</v>
       </c>
       <c r="I22" t="s">
@@ -1631,27 +1970,27 @@
       <c r="N22" t="s">
         <v>65</v>
       </c>
-      <c r="O22" s="0">
+      <c r="O22">
         <v>41</v>
       </c>
-      <c r="P22" s="0">
-        <v>23.800000000000001</v>
-      </c>
-      <c r="Q22" s="0">
-        <v>1</v>
-      </c>
-      <c r="R22" s="0">
-        <v>0</v>
-      </c>
-      <c r="S22" s="0">
-        <v>0</v>
-      </c>
-      <c r="T22" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
+      <c r="P22">
+        <v>23.8</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>534</v>
       </c>
       <c r="B23" t="s">
@@ -1660,10 +1999,10 @@
       <c r="C23" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="0">
+      <c r="D23">
         <v>45.71996</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23">
         <v>-110.97888</v>
       </c>
       <c r="F23" t="s">
@@ -1672,7 +2011,7 @@
       <c r="G23" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="0">
+      <c r="H23">
         <v>3</v>
       </c>
       <c r="I23" t="s">
@@ -1693,27 +2032,27 @@
       <c r="N23" t="s">
         <v>65</v>
       </c>
-      <c r="O23" s="0">
+      <c r="O23">
         <v>17.776497801827915</v>
       </c>
-      <c r="P23" s="0">
+      <c r="P23">
         <v>9.7329699992628385</v>
       </c>
-      <c r="Q23" s="0">
+      <c r="Q23">
         <v>2</v>
       </c>
-      <c r="R23" s="0">
-        <v>0</v>
-      </c>
-      <c r="S23" s="0">
-        <v>0</v>
-      </c>
-      <c r="T23" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>534</v>
       </c>
       <c r="B24" t="s">
@@ -1722,10 +2061,10 @@
       <c r="C24" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="0">
+      <c r="D24">
         <v>45.71996</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24">
         <v>-110.97888</v>
       </c>
       <c r="F24" t="s">
@@ -1734,7 +2073,7 @@
       <c r="G24" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="0">
+      <c r="H24">
         <v>3</v>
       </c>
       <c r="I24" t="s">
@@ -1755,27 +2094,27 @@
       <c r="N24" t="s">
         <v>65</v>
       </c>
-      <c r="O24" s="0">
+      <c r="O24">
         <v>41</v>
       </c>
-      <c r="P24" s="0">
-        <v>23.800000000000001</v>
-      </c>
-      <c r="Q24" s="0">
-        <v>1</v>
-      </c>
-      <c r="R24" s="0">
-        <v>0</v>
-      </c>
-      <c r="S24" s="0">
-        <v>0</v>
-      </c>
-      <c r="T24" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
+      <c r="P24">
+        <v>23.8</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>534</v>
       </c>
       <c r="B25" t="s">
@@ -1784,10 +2123,10 @@
       <c r="C25" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="0">
+      <c r="D25">
         <v>45.71996</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25">
         <v>-110.97888</v>
       </c>
       <c r="F25" t="s">
@@ -1796,7 +2135,7 @@
       <c r="G25" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="0">
+      <c r="H25">
         <v>3</v>
       </c>
       <c r="I25" t="s">
@@ -1817,27 +2156,27 @@
       <c r="N25" t="s">
         <v>65</v>
       </c>
-      <c r="O25" s="0">
+      <c r="O25">
         <v>14.453817537632217</v>
       </c>
-      <c r="P25" s="0">
+      <c r="P25">
         <v>7.5995887261738853</v>
       </c>
-      <c r="Q25" s="0">
+      <c r="Q25">
         <v>2</v>
       </c>
-      <c r="R25" s="0">
-        <v>0</v>
-      </c>
-      <c r="S25" s="0">
-        <v>0</v>
-      </c>
-      <c r="T25" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>534</v>
       </c>
       <c r="B26" t="s">
@@ -1846,10 +2185,10 @@
       <c r="C26" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="0">
+      <c r="D26">
         <v>45.71996</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26">
         <v>-110.97888</v>
       </c>
       <c r="F26" t="s">
@@ -1858,7 +2197,7 @@
       <c r="G26" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="0">
+      <c r="H26">
         <v>3</v>
       </c>
       <c r="I26" t="s">
@@ -1879,27 +2218,27 @@
       <c r="N26" t="s">
         <v>65</v>
       </c>
-      <c r="O26" s="0">
+      <c r="O26">
         <v>25.740704268839696</v>
       </c>
-      <c r="P26" s="0">
+      <c r="P26">
         <v>14.403437476781308</v>
       </c>
-      <c r="Q26" s="0">
-        <v>3</v>
-      </c>
-      <c r="R26" s="0">
-        <v>0</v>
-      </c>
-      <c r="S26" s="0">
-        <v>0</v>
-      </c>
-      <c r="T26" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
+      <c r="Q26">
+        <v>3</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>535</v>
       </c>
       <c r="B27" t="s">
@@ -1908,10 +2247,10 @@
       <c r="C27" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="0">
+      <c r="D27">
         <v>45.82349</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27">
         <v>-110.98584</v>
       </c>
       <c r="F27" t="s">
@@ -1920,7 +2259,7 @@
       <c r="G27" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="0">
+      <c r="H27">
         <v>3</v>
       </c>
       <c r="I27" t="s">
@@ -1941,27 +2280,27 @@
       <c r="N27" t="s">
         <v>65</v>
       </c>
-      <c r="O27" s="0">
+      <c r="O27">
         <v>25.740704268839696</v>
       </c>
-      <c r="P27" s="0">
+      <c r="P27">
         <v>14.403437476781308</v>
       </c>
-      <c r="Q27" s="0">
-        <v>3</v>
-      </c>
-      <c r="R27" s="0">
-        <v>1</v>
-      </c>
-      <c r="S27" s="0">
-        <v>1</v>
-      </c>
-      <c r="T27" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
+      <c r="Q27">
+        <v>3</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>538</v>
       </c>
       <c r="B28" t="s">
@@ -1970,10 +2309,10 @@
       <c r="C28" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="0">
+      <c r="D28">
         <v>45.818669999999997</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28">
         <v>-110.90902</v>
       </c>
       <c r="F28" t="s">
@@ -1982,7 +2321,7 @@
       <c r="G28" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="0">
+      <c r="H28">
         <v>4</v>
       </c>
       <c r="I28" t="s">
@@ -2003,27 +2342,27 @@
       <c r="N28" t="s">
         <v>65</v>
       </c>
-      <c r="O28" s="0">
+      <c r="O28">
         <v>31.704600885300273</v>
       </c>
-      <c r="P28" s="0">
+      <c r="P28">
         <v>19.095057496387554</v>
       </c>
-      <c r="Q28" s="0">
-        <v>3</v>
-      </c>
-      <c r="R28" s="0">
-        <v>0</v>
-      </c>
-      <c r="S28" s="0">
-        <v>0</v>
-      </c>
-      <c r="T28" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
+      <c r="Q28">
+        <v>3</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>539</v>
       </c>
       <c r="B29" t="s">
@@ -2032,10 +2371,10 @@
       <c r="C29" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="0">
+      <c r="D29">
         <v>45.845149999999997</v>
       </c>
-      <c r="E29" s="0">
+      <c r="E29">
         <v>-110.90205</v>
       </c>
       <c r="F29" t="s">
@@ -2044,7 +2383,7 @@
       <c r="G29" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="0">
+      <c r="H29">
         <v>3</v>
       </c>
       <c r="I29" t="s">
@@ -2065,27 +2404,27 @@
       <c r="N29" t="s">
         <v>65</v>
       </c>
-      <c r="O29" s="0">
+      <c r="O29">
         <v>27.41418740746791</v>
       </c>
-      <c r="P29" s="0">
+      <c r="P29">
         <v>19.770663316407362</v>
       </c>
-      <c r="Q29" s="0">
+      <c r="Q29">
         <v>2</v>
       </c>
-      <c r="R29" s="0">
-        <v>0</v>
-      </c>
-      <c r="S29" s="0">
-        <v>0</v>
-      </c>
-      <c r="T29" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>540</v>
       </c>
       <c r="B30" t="s">
@@ -2094,10 +2433,10 @@
       <c r="C30" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="0">
+      <c r="D30">
         <v>45.945729999999998</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30">
         <v>-110.91367</v>
       </c>
       <c r="F30" t="s">
@@ -2106,7 +2445,7 @@
       <c r="G30" t="s">
         <v>55</v>
       </c>
-      <c r="H30" s="0">
+      <c r="H30">
         <v>3</v>
       </c>
       <c r="I30" t="s">
@@ -2127,27 +2466,27 @@
       <c r="N30" t="s">
         <v>65</v>
       </c>
-      <c r="O30" s="0">
+      <c r="O30">
         <v>40.965739544738746</v>
       </c>
-      <c r="P30" s="0">
+      <c r="P30">
         <v>29.421450043757446</v>
       </c>
-      <c r="Q30" s="0">
+      <c r="Q30">
         <v>2</v>
       </c>
-      <c r="R30" s="0">
-        <v>0</v>
-      </c>
-      <c r="S30" s="0">
-        <v>0</v>
-      </c>
-      <c r="T30" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>540</v>
       </c>
       <c r="B31" t="s">
@@ -2156,10 +2495,10 @@
       <c r="C31" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="0">
+      <c r="D31">
         <v>45.911740000000002</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31">
         <v>-110.95779</v>
       </c>
       <c r="F31" t="s">
@@ -2168,7 +2507,7 @@
       <c r="G31" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="0">
+      <c r="H31">
         <v>3</v>
       </c>
       <c r="I31" t="s">
@@ -2189,27 +2528,27 @@
       <c r="N31" t="s">
         <v>65</v>
       </c>
-      <c r="O31" s="0">
+      <c r="O31">
         <v>54.344198858603917</v>
       </c>
-      <c r="P31" s="0">
+      <c r="P31">
         <v>28.700797098523296</v>
       </c>
-      <c r="Q31" s="0">
-        <v>1</v>
-      </c>
-      <c r="R31" s="0">
-        <v>0</v>
-      </c>
-      <c r="S31" s="0">
-        <v>0</v>
-      </c>
-      <c r="T31" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>542</v>
       </c>
       <c r="B32" t="s">
@@ -2218,10 +2557,10 @@
       <c r="C32" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="0">
+      <c r="D32">
         <v>45.967210000000001</v>
       </c>
-      <c r="E32" s="0">
+      <c r="E32">
         <v>-110.96195</v>
       </c>
       <c r="F32" t="s">
@@ -2230,7 +2569,7 @@
       <c r="G32" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="0">
+      <c r="H32">
         <v>4</v>
       </c>
       <c r="I32" t="s">
@@ -2251,27 +2590,27 @@
       <c r="N32" t="s">
         <v>65</v>
       </c>
-      <c r="O32" s="0">
+      <c r="O32">
         <v>49.880229624963349</v>
       </c>
-      <c r="P32" s="0">
+      <c r="P32">
         <v>34.96065587206887</v>
       </c>
-      <c r="Q32" s="0">
-        <v>1</v>
-      </c>
-      <c r="R32" s="0">
-        <v>1</v>
-      </c>
-      <c r="S32" s="0">
-        <v>1</v>
-      </c>
-      <c r="T32" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>544</v>
       </c>
       <c r="B33" t="s">
@@ -2280,10 +2619,10 @@
       <c r="C33" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="0">
+      <c r="D33">
         <v>45.861919999999998</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33">
         <v>-111.03491</v>
       </c>
       <c r="F33" t="s">
@@ -2292,7 +2631,7 @@
       <c r="G33" t="s">
         <v>55</v>
       </c>
-      <c r="H33" s="0">
+      <c r="H33">
         <v>3</v>
       </c>
       <c r="I33" t="s">
@@ -2313,27 +2652,27 @@
       <c r="N33" t="s">
         <v>65</v>
       </c>
-      <c r="O33" s="0">
+      <c r="O33">
         <v>26.480013531620671</v>
       </c>
-      <c r="P33" s="0">
+      <c r="P33">
         <v>14.753101045719513</v>
       </c>
-      <c r="Q33" s="0">
-        <v>1</v>
-      </c>
-      <c r="R33" s="0">
-        <v>1</v>
-      </c>
-      <c r="S33" s="0">
-        <v>1</v>
-      </c>
-      <c r="T33" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>545</v>
       </c>
       <c r="B34" t="s">
@@ -2342,10 +2681,10 @@
       <c r="C34" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="0">
+      <c r="D34">
         <v>45.965060000000001</v>
       </c>
-      <c r="E34" s="0">
+      <c r="E34">
         <v>-111.05221</v>
       </c>
       <c r="F34" t="s">
@@ -2354,7 +2693,7 @@
       <c r="G34" t="s">
         <v>55</v>
       </c>
-      <c r="H34" s="0">
+      <c r="H34">
         <v>3</v>
       </c>
       <c r="I34" t="s">
@@ -2375,27 +2714,27 @@
       <c r="N34" t="s">
         <v>65</v>
       </c>
-      <c r="O34" s="0">
+      <c r="O34">
         <v>39.332480781201639</v>
       </c>
-      <c r="P34" s="0">
+      <c r="P34">
         <v>26.661413071671156</v>
       </c>
-      <c r="Q34" s="0">
-        <v>3</v>
-      </c>
-      <c r="R34" s="0">
-        <v>0</v>
-      </c>
-      <c r="S34" s="0">
-        <v>0</v>
-      </c>
-      <c r="T34" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
+      <c r="Q34">
+        <v>3</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>545</v>
       </c>
       <c r="B35" t="s">
@@ -2404,10 +2743,10 @@
       <c r="C35" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="0">
+      <c r="D35">
         <v>45.965060000000001</v>
       </c>
-      <c r="E35" s="0">
+      <c r="E35">
         <v>-111.05221</v>
       </c>
       <c r="F35" t="s">
@@ -2416,7 +2755,7 @@
       <c r="G35" t="s">
         <v>55</v>
       </c>
-      <c r="H35" s="0">
+      <c r="H35">
         <v>3</v>
       </c>
       <c r="I35" t="s">
@@ -2437,27 +2776,27 @@
       <c r="N35" t="s">
         <v>65</v>
       </c>
-      <c r="O35" s="0">
+      <c r="O35">
         <v>33.461454524751701</v>
       </c>
-      <c r="P35" s="0">
+      <c r="P35">
         <v>23.153764485802593</v>
       </c>
-      <c r="Q35" s="0">
+      <c r="Q35">
         <v>2</v>
       </c>
-      <c r="R35" s="0">
-        <v>0</v>
-      </c>
-      <c r="S35" s="0">
-        <v>0</v>
-      </c>
-      <c r="T35" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>546</v>
       </c>
       <c r="B36" t="s">
@@ -2466,10 +2805,10 @@
       <c r="C36" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="0">
+      <c r="D36">
         <v>45.919130000000003</v>
       </c>
-      <c r="E36" s="0">
+      <c r="E36">
         <v>-111.07577999999999</v>
       </c>
       <c r="F36" t="s">
@@ -2478,7 +2817,7 @@
       <c r="G36" t="s">
         <v>55</v>
       </c>
-      <c r="H36" s="0">
+      <c r="H36">
         <v>3</v>
       </c>
       <c r="I36" t="s">
@@ -2499,27 +2838,27 @@
       <c r="N36" t="s">
         <v>65</v>
       </c>
-      <c r="O36" s="0">
+      <c r="O36">
         <v>33.461454524751701</v>
       </c>
-      <c r="P36" s="0">
+      <c r="P36">
         <v>23.153764485802593</v>
       </c>
-      <c r="Q36" s="0">
+      <c r="Q36">
         <v>2</v>
       </c>
-      <c r="R36" s="0">
-        <v>0</v>
-      </c>
-      <c r="S36" s="0">
-        <v>0</v>
-      </c>
-      <c r="T36" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>551</v>
       </c>
       <c r="B37" t="s">
@@ -2528,10 +2867,10 @@
       <c r="C37" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="0">
+      <c r="D37">
         <v>45.848460000000003</v>
       </c>
-      <c r="E37" s="0">
+      <c r="E37">
         <v>-110.92574</v>
       </c>
       <c r="F37" t="s">
@@ -2540,7 +2879,7 @@
       <c r="G37" t="s">
         <v>55</v>
       </c>
-      <c r="H37" s="0">
+      <c r="H37">
         <v>3</v>
       </c>
       <c r="I37" t="s">
@@ -2561,27 +2900,27 @@
       <c r="N37" t="s">
         <v>65</v>
       </c>
-      <c r="O37" s="0">
+      <c r="O37">
         <v>41</v>
       </c>
-      <c r="P37" s="0">
-        <v>23.800000000000001</v>
-      </c>
-      <c r="Q37" s="0">
-        <v>1</v>
-      </c>
-      <c r="R37" s="0">
-        <v>1</v>
-      </c>
-      <c r="S37" s="0">
-        <v>1</v>
-      </c>
-      <c r="T37" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
+      <c r="P37">
+        <v>23.8</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>586</v>
       </c>
       <c r="B38" t="s">
@@ -2590,10 +2929,10 @@
       <c r="C38" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="0">
+      <c r="D38">
         <v>45.764940000000003</v>
       </c>
-      <c r="E38" s="0">
+      <c r="E38">
         <v>-110.98837</v>
       </c>
       <c r="F38" t="s">
@@ -2602,7 +2941,7 @@
       <c r="G38" t="s">
         <v>56</v>
       </c>
-      <c r="H38" s="0">
+      <c r="H38">
         <v>4</v>
       </c>
       <c r="I38" t="s">
@@ -2623,27 +2962,27 @@
       <c r="N38" t="s">
         <v>65</v>
       </c>
-      <c r="O38" s="0">
+      <c r="O38">
         <v>17.776497801827915</v>
       </c>
-      <c r="P38" s="0">
+      <c r="P38">
         <v>9.7329699992628385</v>
       </c>
-      <c r="Q38" s="0">
+      <c r="Q38">
         <v>2</v>
       </c>
-      <c r="R38" s="0">
-        <v>1</v>
-      </c>
-      <c r="S38" s="0">
-        <v>1</v>
-      </c>
-      <c r="T38" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>2512</v>
       </c>
       <c r="B39" t="s">
@@ -2652,10 +2991,10 @@
       <c r="C39" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="0">
+      <c r="D39">
         <v>45.965060000000001</v>
       </c>
-      <c r="E39" s="0">
+      <c r="E39">
         <v>-111.05221</v>
       </c>
       <c r="F39" t="s">
@@ -2664,7 +3003,7 @@
       <c r="G39" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="0">
+      <c r="H39">
         <v>4</v>
       </c>
       <c r="I39" t="s">
@@ -2685,27 +3024,27 @@
       <c r="N39" t="s">
         <v>65</v>
       </c>
-      <c r="O39" s="0">
+      <c r="O39">
         <v>39.332480781201639</v>
       </c>
-      <c r="P39" s="0">
+      <c r="P39">
         <v>26.661413071671156</v>
       </c>
-      <c r="Q39" s="0">
-        <v>3</v>
-      </c>
-      <c r="R39" s="0">
-        <v>1</v>
-      </c>
-      <c r="S39" s="0">
-        <v>1</v>
-      </c>
-      <c r="T39" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>2514</v>
       </c>
       <c r="B40" t="s">
@@ -2714,10 +3053,10 @@
       <c r="C40" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="0">
+      <c r="D40">
         <v>45.965060000000001</v>
       </c>
-      <c r="E40" s="0">
+      <c r="E40">
         <v>-111.05221</v>
       </c>
       <c r="F40" t="s">
@@ -2726,7 +3065,7 @@
       <c r="G40" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="0">
+      <c r="H40">
         <v>4</v>
       </c>
       <c r="I40" t="s">
@@ -2747,27 +3086,27 @@
       <c r="N40" t="s">
         <v>65</v>
       </c>
-      <c r="O40" s="0">
+      <c r="O40">
         <v>43.560106581012732</v>
       </c>
-      <c r="P40" s="0">
+      <c r="P40">
         <v>27.266587205699018</v>
       </c>
-      <c r="Q40" s="0">
-        <v>3</v>
-      </c>
-      <c r="R40" s="0">
-        <v>1</v>
-      </c>
-      <c r="S40" s="0">
-        <v>1</v>
-      </c>
-      <c r="T40" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
+      <c r="Q40">
+        <v>3</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>6984</v>
       </c>
       <c r="B41" t="s">
@@ -2776,10 +3115,10 @@
       <c r="C41" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="0">
+      <c r="D41">
         <v>45.967210000000001</v>
       </c>
-      <c r="E41" s="0">
+      <c r="E41">
         <v>-110.96195</v>
       </c>
       <c r="F41" t="s">
@@ -2788,7 +3127,7 @@
       <c r="G41" t="s">
         <v>56</v>
       </c>
-      <c r="H41" s="0">
+      <c r="H41">
         <v>4</v>
       </c>
       <c r="I41" t="s">
@@ -2809,30 +3148,102 @@
       <c r="N41" t="s">
         <v>65</v>
       </c>
-      <c r="O41" s="0">
+      <c r="O41">
         <v>47.753186258193431</v>
       </c>
-      <c r="P41" s="0">
+      <c r="P41">
         <v>33.638972753189236</v>
       </c>
-      <c r="Q41" s="0">
-        <v>1</v>
-      </c>
-      <c r="R41" s="0">
-        <v>1</v>
-      </c>
-      <c r="S41" s="0">
-        <v>1</v>
-      </c>
-      <c r="T41" s="0">
-        <v>1</v>
-      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>50</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42">
+        <v>45.608840000000001</v>
+      </c>
+      <c r="E42">
+        <v>-110.92473</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O42">
+        <v>20</v>
+      </c>
+      <c r="P42">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D46" s="1"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FB4AEF90A364904AB44BD7C9C5DEB55F" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5078d1365d6e252cd96535c25ecc4ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e6aa4a14-b130-4f35-9062-45152b493e84" xmlns:ns3="368030b1-5586-425f-a2d0-58e2d1e9f0a4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="004fa8305ad1b22a94d5e86d390185c7" ns2:_="" ns3:_="">
     <xsd:import namespace="e6aa4a14-b130-4f35-9062-45152b493e84"/>
@@ -3075,19 +3486,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87206A35-C7B5-4D86-9C00-7B100AAB16EF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A281442B-E277-44E9-A6A6-D7750EDD0F84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A281442B-E277-44E9-A6A6-D7750EDD0F84}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87206A35-C7B5-4D86-9C00-7B100AAB16EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e6aa4a14-b130-4f35-9062-45152b493e84"/>
+    <ds:schemaRef ds:uri="368030b1-5586-425f-a2d0-58e2d1e9f0a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>